--- a/case study propionate/results_v2.xlsx
+++ b/case study propionate/results_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\case study propionate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A33B6FD-7BEF-43FC-8C05-211F7A29A662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3983806D-FBCE-4904-8B1D-1371C70799CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2375,20 +2375,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.1796875" customWidth="1"/>
+    <col min="1" max="1" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>15.681000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>705.6450000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>32.683007501547472</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>32.783007501547473</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>298.90680228772959</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>64.639264533585845</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>15.280640000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>52</v>
       </c>

--- a/case study propionate/results_v2.xlsx
+++ b/case study propionate/results_v2.xlsx
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204</v>
+        <v>182.7889166722919</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4897.682364002424</v>
+        <v>4897.682363998832</v>
       </c>
     </row>
     <row r="16">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>126.5963996875708</v>
+        <v>126.5963996875693</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>99.95270130617195</v>
+        <v>99.95270130609865</v>
       </c>
     </row>
     <row r="19">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.91535256765684</v>
+        <v>3.915352567656792</v>
       </c>
     </row>
     <row r="21">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4997.635065308596</v>
+        <v>4997.635065304929</v>
       </c>
     </row>
     <row r="23">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.5117522552277</v>
+        <v>130.5117522552261</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>291724.9158334046</v>
+        <v>291724.915833401</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5873.028851485245</v>
+        <v>5873.028851485171</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32964.91548917472</v>
+        <v>32964.91548917429</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7252.281407618439</v>
+        <v>7252.281407618348</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4848.7055403624</v>
+        <v>4848.705540358843</v>
       </c>
     </row>
     <row r="31">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>48.97682364002424</v>
+        <v>48.97682363998831</v>
       </c>
     </row>
     <row r="33">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4897.682364002424</v>
+        <v>4897.682363998832</v>
       </c>
     </row>
     <row r="35">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>16435.95431857018</v>
+        <v>16435.95431856659</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>12655.68482529904</v>
+        <v>12655.68482529627</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2784.250661565789</v>
+        <v>2784.25066156518</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4848.7055403624</v>
+        <v>4848.705540358843</v>
       </c>
     </row>
     <row r="40">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>30841.12865158382</v>
+        <v>30841.12865158006</v>
       </c>
     </row>
     <row r="45">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15912.20092066947</v>
+        <v>15912.20092066869</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>25234.28400462578</v>
+        <v>25234.28400462501</v>
       </c>
     </row>
     <row r="48">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5606.844646958038</v>
+        <v>5606.844646955042</v>
       </c>
     </row>
   </sheetData>

--- a/case study propionate/results_v2.xlsx
+++ b/case study propionate/results_v2.xlsx
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>182.7889166722919</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4897.682363998832</v>
+        <v>4897.682364001286</v>
       </c>
     </row>
     <row r="16">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>126.5963996875693</v>
+        <v>126.5963996875704</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>99.95270130609865</v>
+        <v>99.9527013061487</v>
       </c>
     </row>
     <row r="19">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.915352567656792</v>
+        <v>3.915352567656816</v>
       </c>
     </row>
     <row r="21">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4997.635065304929</v>
+        <v>4997.635065307435</v>
       </c>
     </row>
     <row r="23">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.5117522552261</v>
+        <v>130.5117522552272</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>291724.915833401</v>
+        <v>291724.9158334032</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5873.028851485171</v>
+        <v>5873.028851485222</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32964.91548917429</v>
+        <v>32964.91548917458</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7252.281407618348</v>
+        <v>7252.28140761841</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4848.705540358843</v>
+        <v>4848.705540361272</v>
       </c>
     </row>
     <row r="31">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>48.97682363998831</v>
+        <v>48.97682364001287</v>
       </c>
     </row>
     <row r="33">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4897.682363998832</v>
+        <v>4897.682364001286</v>
       </c>
     </row>
     <row r="35">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>16435.95431856659</v>
+        <v>16435.95431856904</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>12655.68482529627</v>
+        <v>12655.68482529816</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2784.25066156518</v>
+        <v>2784.250661565595</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4848.705540358843</v>
+        <v>4848.705540361272</v>
       </c>
     </row>
     <row r="40">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>30841.12865158006</v>
+        <v>30841.12865158262</v>
       </c>
     </row>
     <row r="45">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15912.20092066869</v>
+        <v>15912.20092066922</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>25234.28400462501</v>
+        <v>25234.28400462554</v>
       </c>
     </row>
     <row r="48">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5606.844646955042</v>
+        <v>5606.844646957077</v>
       </c>
     </row>
   </sheetData>

--- a/case study propionate/results_v2.xlsx
+++ b/case study propionate/results_v2.xlsx
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>120</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4897.682364001286</v>
+        <v>4897.682364002424</v>
       </c>
     </row>
     <row r="16">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>126.5963996875704</v>
+        <v>126.5963996875708</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>99.9527013061487</v>
+        <v>99.95270130617195</v>
       </c>
     </row>
     <row r="19">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.915352567656816</v>
+        <v>3.91535256765684</v>
       </c>
     </row>
     <row r="21">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4997.635065307435</v>
+        <v>4997.635065308596</v>
       </c>
     </row>
     <row r="23">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.5117522552272</v>
+        <v>130.5117522552277</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>291724.9158334032</v>
+        <v>291724.9158334046</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5873.028851485222</v>
+        <v>5873.028851485245</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32964.91548917458</v>
+        <v>32964.91548917472</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7252.28140761841</v>
+        <v>7252.281407618439</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4848.705540361272</v>
+        <v>4848.7055403624</v>
       </c>
     </row>
     <row r="31">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>48.97682364001287</v>
+        <v>48.97682364002424</v>
       </c>
     </row>
     <row r="33">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4897.682364001286</v>
+        <v>4897.682364002424</v>
       </c>
     </row>
     <row r="35">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>16435.95431856904</v>
+        <v>16435.95431857018</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>12655.68482529816</v>
+        <v>12655.68482529904</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2784.250661565595</v>
+        <v>2784.250661565789</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4848.705540361272</v>
+        <v>4848.7055403624</v>
       </c>
     </row>
     <row r="40">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>30841.12865158262</v>
+        <v>30841.12865158382</v>
       </c>
     </row>
     <row r="45">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15912.20092066922</v>
+        <v>15912.20092066947</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>25234.28400462554</v>
+        <v>25234.28400462578</v>
       </c>
     </row>
     <row r="48">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5606.844646957077</v>
+        <v>5606.844646958038</v>
       </c>
     </row>
   </sheetData>

--- a/case study propionate/results_v2.xlsx
+++ b/case study propionate/results_v2.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4997.635065308596</v>
+        <v>5984.301031857052</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11654.82015612905</v>
+        <v>13191.30596193509</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>275072.4606119671</v>
+        <v>311335.9915490934</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5016.440996853937</v>
+        <v>1393.455832459419</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4997.635065308596</v>
+        <v>5984.301031857052</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11654.82015612905</v>
+        <v>13191.30596193509</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>275072.4606119671</v>
+        <v>311335.9915490934</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5016.440996853937</v>
+        <v>1393.455832459419</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204</v>
+        <v>128.0105706272269</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4897.682364002424</v>
+        <v>5864.615011217259</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11538.27195456776</v>
+        <v>13059.39290231574</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>126.5963996875708</v>
+        <v>143.4281960832142</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>99.95270130617195</v>
+        <v>119.6860206370869</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>116.5482015612905</v>
+        <v>131.9130596193509</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.91535256765684</v>
+        <v>4.435923590202504</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>275072.4606119669</v>
+        <v>311335.9915490932</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4997.635065308596</v>
+        <v>5984.301031854346</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11654.82015612905</v>
+        <v>13191.30596193509</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>275072.4606119669</v>
+        <v>311335.9915490932</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.5117522552277</v>
+        <v>147.8641196734167</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>291724.9158334046</v>
+        <v>330511.5985428825</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5873.028851485245</v>
+        <v>6653.885385303753</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32964.91548917472</v>
+        <v>37347.81063534573</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7252.281407618439</v>
+        <v>8216.518339776061</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4848.7055403624</v>
+        <v>5805.968861105086</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>115.3827195456776</v>
+        <v>130.5939290231574</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>48.97682364002424</v>
+        <v>58.64615011217261</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>11422.88923502208</v>
+        <v>12928.79897329258</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4897.682364002424</v>
+        <v>5864.615011217259</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>11538.27195456776</v>
+        <v>13059.39290231574</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>16435.95431857018</v>
+        <v>18924.00791353299</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>12655.68482529904</v>
+        <v>14571.48609342041</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2784.250661565789</v>
+        <v>3205.726940552489</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4848.7055403624</v>
+        <v>5805.968861105086</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11422.88923502208</v>
+        <v>12928.79897329258</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5016.440996853937</v>
+        <v>1393.455832459419</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>275292.876867402</v>
+        <v>311592.0265529398</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>682.0830839563175</v>
+        <v>219.3279897594884</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>30841.12865158382</v>
+        <v>35244.12468267969</v>
       </c>
     </row>
     <row r="45">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15912.20092066947</v>
+        <v>18078.77066563231</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>25234.28400462578</v>
+        <v>26938.09865539179</v>
       </c>
     </row>
     <row r="48">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5606.844646958038</v>
+        <v>8306.0260272879</v>
       </c>
     </row>
   </sheetData>
